--- a/Preprocessing/graphletcorrelationcomparison.xlsx
+++ b/Preprocessing/graphletcorrelationcomparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GCParallel\Preprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB40CCF-5738-4A43-8FF7-9960902A5336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE9561-1DDA-42DD-88DD-7B53685E42DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E0F10289-02EB-4BDF-8CB0-74E49D4327D8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E0F10289-02EB-4BDF-8CB0-74E49D4327D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet3!$A$1:$N$55</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet4!$A$1:$N$60</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5286,16 +5286,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10931,7 +10931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F662C03E-9779-4C69-AF17-45A92F0F7F97}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
       <selection activeCell="P63" sqref="P63:AB64"/>
     </sheetView>
   </sheetViews>
